--- a/trunk/Document/AlaProject_Estimation.xlsx
+++ b/trunk/Document/AlaProject_Estimation.xlsx
@@ -11,13 +11,19 @@
     <sheet name="Estimate" sheetId="1" r:id="rId2"/>
     <sheet name="SVN" sheetId="3" r:id="rId3"/>
     <sheet name="TaskSchedule" sheetId="4" r:id="rId4"/>
+    <sheet name="Q&amp;A" sheetId="5" r:id="rId5"/>
+    <sheet name="Data" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="PIC">Data!$B$3:$B$7</definedName>
+    <definedName name="Status">Data!$D$3:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Nghiên cứu chức năng app haivl trên Android</t>
   </si>
@@ -287,6 +293,43 @@
   </si>
   <si>
     <t>4.2.11</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Open Date</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Close Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đối với những chức năng có trên haivl app nhưng không có trên website ala.vn thì giải quyết như thế nào?
+</t>
+  </si>
+  <si>
+    <t>NguyenPT</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Opened</t>
   </si>
 </sst>
 </file>
@@ -447,7 +490,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -504,6 +547,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2382,4 +2440,426 @@
     <ignoredError sqref="D38 D23 D47" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="4.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="45">
+      <c r="B3" s="29">
+        <f>IF(C3="","",ROW()-ROW(B2))</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="31">
+        <v>41859</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="29" t="str">
+        <f t="shared" ref="B4:B25" si="0">IF(C4="","",ROW()-ROW(B3))</f>
+        <v/>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I25">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Document/AlaProject_Estimation.xlsx
+++ b/trunk/Document/AlaProject_Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>Nghiên cứu chức năng app haivl trên Android</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Opened</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Xây dựng framework cho application Android</t>
   </si>
 </sst>
 </file>
@@ -533,6 +539,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,21 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,11 +989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="26.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="12" t="s">
@@ -1551,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H47"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1568,11 +1574,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="18" t="s">
@@ -1633,7 +1639,9 @@
       <c r="G4" s="10">
         <v>41859</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="20">
@@ -1654,7 +1662,9 @@
       <c r="G5" s="10">
         <v>41859</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="20">
@@ -1712,7 +1722,9 @@
       <c r="G8" s="10">
         <v>41860</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="20">
@@ -1733,7 +1745,9 @@
       <c r="G9" s="10">
         <v>41860</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="19">
@@ -2332,30 +2346,29 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D43" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F43" s="11">
+        <v>41864</v>
+      </c>
+      <c r="G43" s="11">
+        <f>F42+2</f>
+        <v>41870</v>
+      </c>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="21">
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3">
         <v>8</v>
@@ -2369,17 +2382,19 @@
       <c r="G44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="21">
         <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>65</v>
@@ -2397,10 +2412,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D46" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>65</v>
@@ -2414,30 +2429,51 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="20"/>
+      <c r="B47" s="21">
+        <v>12</v>
+      </c>
       <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="20"/>
+      <c r="C48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="9">
-        <f>SUM(D3,D7,D10,D15,D36,D38,D42:D46)</f>
-        <v>166</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="D48" s="9">
+        <f>SUM(D3,D7,D10,D15,D36,D38,D42:D47)</f>
+        <v>182</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="G40:G41" formula="1"/>
-    <ignoredError sqref="D38 D23 D47" formulaRange="1"/>
+    <ignoredError sqref="D38 D23 D48" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2450,349 +2486,349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="4.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="4.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="45">
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <f>IF(C3="","",ROW()-ROW(B2))</f>
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="26">
         <v>41859</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="24" t="str">
         <f t="shared" ref="B4:B25" si="0">IF(C4="","",ROW()-ROW(B3))</f>
         <v/>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="29" t="str">
+      <c r="B5" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="29" t="str">
+      <c r="B6" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="29" t="str">
+      <c r="B7" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="29" t="str">
+      <c r="B9" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="29" t="str">
+      <c r="B11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="29" t="str">
+      <c r="B12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="29" t="str">
+      <c r="B13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="29" t="str">
+      <c r="B14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="29" t="str">
+      <c r="B15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="29" t="str">
+      <c r="B16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="29" t="str">
+      <c r="B17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="29" t="str">
+      <c r="B18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="29" t="str">
+      <c r="B19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="29" t="str">
+      <c r="B20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="29" t="str">
+      <c r="B21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="29" t="str">
+      <c r="B22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="29" t="str">
+      <c r="B23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="29" t="str">
+      <c r="B24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="29" t="str">
+      <c r="B25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/trunk/Document/AlaProject_Estimation.xlsx
+++ b/trunk/Document/AlaProject_Estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t>Nghiên cứu chức năng app haivl trên Android</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Xây dựng framework cho application Android</t>
+  </si>
+  <si>
+    <t>Xây dựng các class model</t>
+  </si>
+  <si>
+    <t>Xây dựng các phương thức lấy dữ liệu từ database ala.vn</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -568,6 +574,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -978,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1557,9 +1566,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2214,7 +2225,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" hidden="1">
       <c r="B37" s="20"/>
       <c r="C37" s="6" t="s">
         <v>45</v>
@@ -2234,246 +2245,292 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="21">
+      <c r="B38" s="20"/>
+      <c r="C38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="2:8" hidden="1">
+      <c r="B39" s="20"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="20"/>
+      <c r="C40" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="2:8" hidden="1">
+      <c r="B41" s="20"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="21">
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
-        <f>SUM(D39:D41)</f>
+      <c r="D42" s="3">
+        <f>SUM(D43:D45)</f>
         <v>16</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="20">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="20">
         <v>6.1</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D43" s="9">
         <v>5</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F43" s="10">
         <f>G8+1</f>
         <v>41861</v>
       </c>
-      <c r="G39" s="10">
-        <f>F39+1</f>
+      <c r="G43" s="10">
+        <f>F43+1</f>
         <v>41862</v>
       </c>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="20">
+      <c r="H43" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="20">
         <v>6.2</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D44" s="9">
         <v>5</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="10">
-        <f>G39+1</f>
+      <c r="F44" s="10">
+        <f>G43+1</f>
         <v>41863</v>
       </c>
-      <c r="G40" s="10">
-        <f>F40+2</f>
+      <c r="G44" s="10">
+        <f>F44+2</f>
         <v>41865</v>
       </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="20">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="20">
         <v>6.3</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D45" s="9">
         <v>6</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="10">
-        <f>G40+1</f>
+      <c r="F45" s="10">
+        <f>G44+1</f>
         <v>41866</v>
       </c>
-      <c r="G41" s="10">
-        <f>F41+1</f>
+      <c r="G45" s="10">
+        <f>F45+1</f>
         <v>41867</v>
       </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="21">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="11">
-        <f>G41+1</f>
-        <v>41868</v>
-      </c>
-      <c r="G42" s="11">
-        <f>F42+2</f>
-        <v>41870</v>
-      </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="21">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="3">
-        <v>16</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="11">
-        <v>41864</v>
-      </c>
-      <c r="G43" s="11">
-        <f>F42+2</f>
-        <v>41870</v>
-      </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="21">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="3">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="21">
-        <v>10</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="3">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="21">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D46" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="F46" s="11">
+        <f>G45+1</f>
+        <v>41868</v>
+      </c>
+      <c r="G46" s="11">
+        <f>F46+2</f>
+        <v>41870</v>
       </c>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="21">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="3">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="11">
+        <v>41864</v>
+      </c>
+      <c r="G47" s="11">
+        <f>F46+2</f>
+        <v>41870</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="21">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="21">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="21">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="21">
         <v>12</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D51" s="3">
         <v>24</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="20"/>
-      <c r="C48" s="3" t="s">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="20"/>
+      <c r="C52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="9">
-        <f>SUM(D3,D7,D10,D15,D36,D38,D42:D47)</f>
+      <c r="D52" s="9">
+        <f>SUM(D3,D7,D10,D15,D36,D42,D46:D51)</f>
         <v>182</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G40:G41" formula="1"/>
-    <ignoredError sqref="D38 D23 D48" formulaRange="1"/>
+    <ignoredError sqref="G44:G45" formula="1"/>
+    <ignoredError sqref="D42 D23 D52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/trunk/Document/AlaProject_Estimation.xlsx
+++ b/trunk/Document/AlaProject_Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>Nghiên cứu chức năng app haivl trên Android</t>
   </si>
@@ -342,13 +342,43 @@
   </si>
   <si>
     <t>Xây dựng các phương thức lấy dữ liệu từ database ala.vn</t>
+  </si>
+  <si>
+    <t>Get dữ liệu và hiển thị data cho các màn hình</t>
+  </si>
+  <si>
+    <t>Xây dựng các script PHP</t>
+  </si>
+  <si>
+    <t>Xây dựng các phương thức Data access</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>Các màn hình hiển thị image &lt;Mới, Chưa xem, Hot, Cũ, Bình chọn&gt;</t>
+  </si>
+  <si>
+    <t>Các màn hình khác &lt;Đăng ảnh, Video, Đăng nhập, User, Tùy chọn, Thông báo, Bình luận&gt;</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>Xây dựng Controller class</t>
+  </si>
+  <si>
+    <t>Tạo tài liệu design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +439,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -502,7 +540,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -560,6 +598,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,8 +616,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,11 +1050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="26.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="12" t="s">
@@ -1566,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H52"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1585,11 +1637,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="18" t="s">
@@ -1906,9 +1958,11 @@
         <f>F16+1</f>
         <v>41868</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="H16" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1">
       <c r="B17" s="20" t="s">
         <v>73</v>
       </c>
@@ -1923,7 +1977,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" hidden="1">
       <c r="B18" s="20" t="s">
         <v>74</v>
       </c>
@@ -1938,7 +1992,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" hidden="1">
       <c r="B19" s="20" t="s">
         <v>75</v>
       </c>
@@ -1953,7 +2007,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" hidden="1">
       <c r="B20" s="20" t="s">
         <v>76</v>
       </c>
@@ -1968,7 +2022,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" hidden="1">
       <c r="B21" s="20" t="s">
         <v>77</v>
       </c>
@@ -1983,7 +2037,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" hidden="1">
       <c r="B22" s="20" t="s">
         <v>78</v>
       </c>
@@ -2020,9 +2074,11 @@
         <f>F23+2</f>
         <v>41870</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="H23" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1">
       <c r="B24" s="20" t="s">
         <v>79</v>
       </c>
@@ -2037,7 +2093,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" hidden="1">
       <c r="B25" s="20" t="s">
         <v>80</v>
       </c>
@@ -2052,7 +2108,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" hidden="1">
       <c r="B26" s="20" t="s">
         <v>81</v>
       </c>
@@ -2067,7 +2123,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" hidden="1">
       <c r="B27" s="20" t="s">
         <v>82</v>
       </c>
@@ -2082,7 +2138,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" hidden="1">
       <c r="B28" s="20" t="s">
         <v>83</v>
       </c>
@@ -2097,7 +2153,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" hidden="1">
       <c r="B29" s="20" t="s">
         <v>84</v>
       </c>
@@ -2112,7 +2168,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" hidden="1">
       <c r="B30" s="20" t="s">
         <v>85</v>
       </c>
@@ -2127,7 +2183,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" hidden="1">
       <c r="B31" s="20" t="s">
         <v>86</v>
       </c>
@@ -2142,7 +2198,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" hidden="1">
       <c r="B32" s="20" t="s">
         <v>87</v>
       </c>
@@ -2157,7 +2213,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" hidden="1">
       <c r="B33" s="20" t="s">
         <v>88</v>
       </c>
@@ -2172,7 +2228,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" hidden="1">
       <c r="B34" s="20" t="s">
         <v>89</v>
       </c>
@@ -2208,7 +2264,9 @@
         <f>F35+1</f>
         <v>41870</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="21">
@@ -2245,33 +2303,50 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="20"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9">
+        <v>8</v>
+      </c>
       <c r="E38" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8" hidden="1">
-      <c r="B39" s="20"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+    <row r="39" spans="2:8">
+      <c r="B39" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="9">
+        <f>SUM(D40:D42)</f>
+        <v>24</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="20"/>
-      <c r="C40" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="9"/>
+      <c r="B40" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="9">
+        <v>8</v>
+      </c>
       <c r="E40" s="9" t="s">
         <v>60</v>
       </c>
@@ -2279,258 +2354,352 @@
       <c r="G40" s="10"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" hidden="1">
-      <c r="B41" s="20"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+    <row r="41" spans="2:8">
+      <c r="B41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="9">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="21">
+      <c r="B42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="9">
+        <v>8</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="21">
         <v>6</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3">
-        <f>SUM(D43:D45)</f>
+      <c r="D43" s="3">
+        <f>SUM(D44:D46)</f>
         <v>16</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="20">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="20">
         <v>6.1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>5</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <f>G8+1</f>
         <v>41861</v>
       </c>
-      <c r="G43" s="10">
-        <f>F43+1</f>
+      <c r="G44" s="10">
+        <f>F44+1</f>
         <v>41862</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="9">
-        <v>5</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="10">
-        <f>G43+1</f>
-        <v>41863</v>
-      </c>
-      <c r="G44" s="10">
-        <f>F44+2</f>
-        <v>41865</v>
-      </c>
-      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="20">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="10">
         <f>G44+1</f>
+        <v>41863</v>
+      </c>
+      <c r="G45" s="10">
+        <f>F45+2</f>
+        <v>41865</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="9">
+        <v>6</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="10">
+        <f>G45+1</f>
         <v>41866</v>
       </c>
-      <c r="G45" s="10">
-        <f>F45+1</f>
+      <c r="G46" s="10">
+        <f>F46+1</f>
         <v>41867</v>
       </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="21">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="3">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="11">
-        <f>G45+1</f>
-        <v>41868</v>
-      </c>
-      <c r="G46" s="11">
-        <f>F46+2</f>
-        <v>41870</v>
-      </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="21">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="3">
+        <f>SUM(D48:D49)</f>
+        <v>24</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="36">
+        <v>7.1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="37">
+        <v>16</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="2:8" ht="30">
+      <c r="B49" s="36">
+        <v>7.2</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="37">
         <v>8</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="3">
-        <v>16</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="11">
-        <v>41864</v>
-      </c>
-      <c r="G47" s="11">
-        <f>F46+2</f>
-        <v>41870</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="21">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="3">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="21">
-        <v>10</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="3"/>
+      <c r="E49" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="21">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D50" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="F50" s="11">
+        <f>G46+1</f>
+        <v>41868</v>
+      </c>
+      <c r="G50" s="11">
+        <f>F50+2</f>
+        <v>41870</v>
       </c>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="21">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3">
+        <v>16</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="11">
+        <v>41864</v>
+      </c>
+      <c r="G51" s="11">
+        <f>F50+2</f>
+        <v>41870</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="21">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="21">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="21">
         <v>12</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="21">
+        <v>13</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D55" s="3">
         <v>24</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="20"/>
-      <c r="C52" s="3" t="s">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="21">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="3">
+        <v>16</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="20"/>
+      <c r="C57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="9">
-        <f>SUM(D3,D7,D10,D15,D36,D42,D46:D51)</f>
+      <c r="D57" s="9">
+        <f>SUM(D3,D7,D10,D15,D36,D43,D50:D55)</f>
         <v>182</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E57:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G44:G45" formula="1"/>
-    <ignoredError sqref="D42 D23 D52" formulaRange="1"/>
+    <ignoredError sqref="G45:G46" formula="1"/>
+    <ignoredError sqref="D43 D23 D57 D47" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/trunk/Document/AlaProject_Estimation.xlsx
+++ b/trunk/Document/AlaProject_Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
   <si>
     <t>Nghiên cứu chức năng app haivl trên Android</t>
   </si>
@@ -540,7 +540,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -598,8 +598,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,20 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,11 +1044,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="26.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="12" t="s">
@@ -1620,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1637,11 +1631,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="18" t="s">
@@ -1748,7 +1742,9 @@
       <c r="G6" s="10">
         <v>41860</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="19">
@@ -2306,7 +2302,7 @@
       <c r="B38" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="9">
@@ -2323,7 +2319,7 @@
       <c r="B39" s="20">
         <v>5.2</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="9">
@@ -2341,7 +2337,7 @@
       <c r="B40" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="30" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="9">
@@ -2358,7 +2354,7 @@
       <c r="B41" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="30" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="9">
@@ -2375,7 +2371,7 @@
       <c r="B42" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="30" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="9">
@@ -2494,38 +2490,38 @@
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="36">
+      <c r="B48" s="27">
         <v>7.1</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="28">
         <v>16</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="37"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="2:8" ht="30">
-      <c r="B49" s="36">
+      <c r="B49" s="27">
         <v>7.2</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="28">
         <v>8</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="37"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="21">
@@ -2668,12 +2664,12 @@
       <c r="D56" s="3">
         <v>16</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="20"/>
@@ -2684,10 +2680,10 @@
         <f>SUM(D3,D7,D10,D15,D36,D43,D50:D55)</f>
         <v>182</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
